--- a/tables/TableS6_fitted_species_predictions.xlsx
+++ b/tables/TableS6_fitted_species_predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5EC0F039-93C6-F945-BD0A-85CDCC86DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD95B1F-1B63-A241-A188-5FE463E28282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{6FF28653-0537-0941-94E8-FD2F62CE4CC6}"/>
+    <workbookView xWindow="20500" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{6FF28653-0537-0941-94E8-FD2F62CE4CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS6_fitted_species_predicti" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Navaja clam</t>
   </si>
   <si>
-    <t>0.07 (0.01-0.248)</t>
-  </si>
-  <si>
-    <t>0.217 (0.028-0.811)</t>
-  </si>
-  <si>
     <t>Hiatellidae</t>
   </si>
   <si>
@@ -55,12 +49,6 @@
     <t>Geoduck clam</t>
   </si>
   <si>
-    <t>0.065 (0.012-0.206)</t>
-  </si>
-  <si>
-    <t>0.204 (0.034-0.678)</t>
-  </si>
-  <si>
     <t>Solenidae</t>
   </si>
   <si>
@@ -73,12 +61,6 @@
     <t>Grooved razor shell</t>
   </si>
   <si>
-    <t>0.047 (0.006-0.168)</t>
-  </si>
-  <si>
-    <t>0.146 (0.018-0.545)</t>
-  </si>
-  <si>
     <t>Cardiida</t>
   </si>
   <si>
@@ -94,12 +76,6 @@
     <t>Rough cockle</t>
   </si>
   <si>
-    <t>0.003 (0.001-0.009)</t>
-  </si>
-  <si>
-    <t>0.01 (0.002-0.03)</t>
-  </si>
-  <si>
     <t>Cerastoderma</t>
   </si>
   <si>
@@ -109,12 +85,6 @@
     <t>Common cockle</t>
   </si>
   <si>
-    <t>0.08 (0.023-0.204)</t>
-  </si>
-  <si>
-    <t>0.25 (0.063-0.678)</t>
-  </si>
-  <si>
     <t>Donacidae</t>
   </si>
   <si>
@@ -127,12 +97,6 @@
     <t>Abrupt wedge shell</t>
   </si>
   <si>
-    <t>0.008 (0.001-0.028)</t>
-  </si>
-  <si>
-    <t>0.025 (0.003-0.091)</t>
-  </si>
-  <si>
     <t>Psammobiidae</t>
   </si>
   <si>
@@ -145,12 +109,6 @@
     <t>Purple clam</t>
   </si>
   <si>
-    <t>0.014 (0.003-0.041)</t>
-  </si>
-  <si>
-    <t>0.043 (0.009-0.125)</t>
-  </si>
-  <si>
     <t>Myida</t>
   </si>
   <si>
@@ -166,12 +124,6 @@
     <t>Soft-shell clam</t>
   </si>
   <si>
-    <t>0.011 (0.003-0.03)</t>
-  </si>
-  <si>
-    <t>0.033 (0.007-0.099)</t>
-  </si>
-  <si>
     <t>Mytilida</t>
   </si>
   <si>
@@ -187,36 +139,18 @@
     <t>California mussel</t>
   </si>
   <si>
-    <t>0.027 (0.012-0.048)</t>
-  </si>
-  <si>
-    <t>0.084 (0.032-0.165)</t>
-  </si>
-  <si>
     <t>Mytilus edulis</t>
   </si>
   <si>
     <t>Blue mussel</t>
   </si>
   <si>
-    <t>0.047 (0.026-0.08)</t>
-  </si>
-  <si>
-    <t>0.144 (0.081-0.231)</t>
-  </si>
-  <si>
     <t>Mytilus galloprovincialis</t>
   </si>
   <si>
     <t>Mediterranean mussel</t>
   </si>
   <si>
-    <t>0.033 (0.02-0.051)</t>
-  </si>
-  <si>
-    <t>0.101 (0.058-0.163)</t>
-  </si>
-  <si>
     <t>Perna</t>
   </si>
   <si>
@@ -226,24 +160,12 @@
     <t>Green-lipped mussel</t>
   </si>
   <si>
-    <t>0.062 (0.012-0.206)</t>
-  </si>
-  <si>
-    <t>0.184 (0.039-0.577)</t>
-  </si>
-  <si>
     <t>Perna viridis</t>
   </si>
   <si>
     <t>Asian green mussel</t>
   </si>
   <si>
-    <t>0.068 (0.022-0.159)</t>
-  </si>
-  <si>
-    <t>0.203 (0.075-0.447)</t>
-  </si>
-  <si>
     <t>Ostreida</t>
   </si>
   <si>
@@ -259,12 +181,6 @@
     <t>Eastern oyster</t>
   </si>
   <si>
-    <t>0.014 (0.005-0.028)</t>
-  </si>
-  <si>
-    <t>0.042 (0.016-0.089)</t>
-  </si>
-  <si>
     <t>Magallana</t>
   </si>
   <si>
@@ -274,24 +190,12 @@
     <t>Pacific oyster</t>
   </si>
   <si>
-    <t>0.084 (0.043-0.146)</t>
-  </si>
-  <si>
-    <t>0.251 (0.157-0.379)</t>
-  </si>
-  <si>
     <t>Magallana rivularis</t>
   </si>
   <si>
     <t>Jinjiang oyster</t>
   </si>
   <si>
-    <t>0.095 (0.035-0.214)</t>
-  </si>
-  <si>
-    <t>0.28 (0.122-0.564)</t>
-  </si>
-  <si>
     <t>Saccostrea</t>
   </si>
   <si>
@@ -301,12 +205,6 @@
     <t>Sydney rock oyster</t>
   </si>
   <si>
-    <t>0.172 (0.037-0.516)</t>
-  </si>
-  <si>
-    <t>0.507 (0.119-1.417)</t>
-  </si>
-  <si>
     <t>Pectinida</t>
   </si>
   <si>
@@ -322,12 +220,6 @@
     <t>Purple-hinged rock scallop</t>
   </si>
   <si>
-    <t>0.015 (0.004-0.041)</t>
-  </si>
-  <si>
-    <t>0.045 (0.013-0.115)</t>
-  </si>
-  <si>
     <t>Mimachlamys</t>
   </si>
   <si>
@@ -337,12 +229,6 @@
     <t>Noble scallop</t>
   </si>
   <si>
-    <t>0.197 (0.03-0.666)</t>
-  </si>
-  <si>
-    <t>0.589 (0.094-1.955)</t>
-  </si>
-  <si>
     <t>Mizuhopecten</t>
   </si>
   <si>
@@ -352,12 +238,6 @@
     <t>Japanese scallop</t>
   </si>
   <si>
-    <t>0.029 (0.012-0.06)</t>
-  </si>
-  <si>
-    <t>0.09 (0.036-0.186)</t>
-  </si>
-  <si>
     <t>Nodipecten</t>
   </si>
   <si>
@@ -367,12 +247,6 @@
     <t>Pacific giant lions-paw scallop</t>
   </si>
   <si>
-    <t>0.039 (0.005-0.149)</t>
-  </si>
-  <si>
-    <t>0.116 (0.018-0.413)</t>
-  </si>
-  <si>
     <t>Placopecten</t>
   </si>
   <si>
@@ -382,12 +256,6 @@
     <t>Atlantic sea scallop</t>
   </si>
   <si>
-    <t>0.01 (0.005-0.018)</t>
-  </si>
-  <si>
-    <t>0.031 (0.012-0.065)</t>
-  </si>
-  <si>
     <t>Venerida</t>
   </si>
   <si>
@@ -403,12 +271,6 @@
     <t>Smooth clam</t>
   </si>
   <si>
-    <t>0.001 (0-0.004)</t>
-  </si>
-  <si>
-    <t>0.003 (0-0.012)</t>
-  </si>
-  <si>
     <t>Chamelea</t>
   </si>
   <si>
@@ -418,12 +280,6 @@
     <t>Warty venus</t>
   </si>
   <si>
-    <t>0.003 (0-0.011)</t>
-  </si>
-  <si>
-    <t>0.009 (0.001-0.034)</t>
-  </si>
-  <si>
     <t>Mercenaria</t>
   </si>
   <si>
@@ -433,12 +289,6 @@
     <t>Northern quahog</t>
   </si>
   <si>
-    <t>0.06 (0.021-0.135)</t>
-  </si>
-  <si>
-    <t>0.178 (0.074-0.353)</t>
-  </si>
-  <si>
     <t>Ruditapes</t>
   </si>
   <si>
@@ -448,24 +298,12 @@
     <t>Grooved carpet shell</t>
   </si>
   <si>
-    <t>0.034 (0.005-0.107)</t>
-  </si>
-  <si>
-    <t>0.1 (0.018-0.298)</t>
-  </si>
-  <si>
     <t>Ruditapes philippinarum</t>
   </si>
   <si>
     <t>Manila clam</t>
   </si>
   <si>
-    <t>0.048 (0.009-0.161)</t>
-  </si>
-  <si>
-    <t>0.14 (0.029-0.443)</t>
-  </si>
-  <si>
     <t>Mactridae</t>
   </si>
   <si>
@@ -478,12 +316,6 @@
     <t>Surf clam</t>
   </si>
   <si>
-    <t>0.007 (0.002-0.015)</t>
-  </si>
-  <si>
-    <t>0.02 (0.008-0.042)</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -512,6 +344,174 @@
   </si>
   <si>
     <t>Scientific name</t>
+  </si>
+  <si>
+    <t>0.069 (0.013-0.225)</t>
+  </si>
+  <si>
+    <t>0.174 (0.03-0.568)</t>
+  </si>
+  <si>
+    <t>0.066 (0.015-0.19)</t>
+  </si>
+  <si>
+    <t>0.169 (0.034-0.501)</t>
+  </si>
+  <si>
+    <t>0.05 (0.009-0.159)</t>
+  </si>
+  <si>
+    <t>0.129 (0.022-0.425)</t>
+  </si>
+  <si>
+    <t>0.006 (0.001-0.016)</t>
+  </si>
+  <si>
+    <t>0.015 (0.003-0.044)</t>
+  </si>
+  <si>
+    <t>0.101 (0.032-0.243)</t>
+  </si>
+  <si>
+    <t>0.258 (0.071-0.653)</t>
+  </si>
+  <si>
+    <t>0.035 (0.006-0.114)</t>
+  </si>
+  <si>
+    <t>0.089 (0.015-0.298)</t>
+  </si>
+  <si>
+    <t>0.067 (0.017-0.192)</t>
+  </si>
+  <si>
+    <t>0.168 (0.041-0.478)</t>
+  </si>
+  <si>
+    <t>0.055 (0.015-0.146)</t>
+  </si>
+  <si>
+    <t>0.14 (0.034-0.397)</t>
+  </si>
+  <si>
+    <t>0.034 (0.015-0.061)</t>
+  </si>
+  <si>
+    <t>0.088 (0.034-0.169)</t>
+  </si>
+  <si>
+    <t>0.078 (0.043-0.13)</t>
+  </si>
+  <si>
+    <t>0.195 (0.113-0.318)</t>
+  </si>
+  <si>
+    <t>0.042 (0.026-0.064)</t>
+  </si>
+  <si>
+    <t>0.105 (0.061-0.17)</t>
+  </si>
+  <si>
+    <t>0.064 (0.016-0.18)</t>
+  </si>
+  <si>
+    <t>0.156 (0.042-0.43)</t>
+  </si>
+  <si>
+    <t>0.122 (0.042-0.287)</t>
+  </si>
+  <si>
+    <t>0.299 (0.114-0.657)</t>
+  </si>
+  <si>
+    <t>0.054 (0.021-0.115)</t>
+  </si>
+  <si>
+    <t>0.135 (0.055-0.281)</t>
+  </si>
+  <si>
+    <t>0.123 (0.066-0.213)</t>
+  </si>
+  <si>
+    <t>0.303 (0.189-0.464)</t>
+  </si>
+  <si>
+    <t>0.12 (0.046-0.259)</t>
+  </si>
+  <si>
+    <t>0.293 (0.129-0.562)</t>
+  </si>
+  <si>
+    <t>0.188 (0.045-0.544)</t>
+  </si>
+  <si>
+    <t>0.458 (0.125-1.26)</t>
+  </si>
+  <si>
+    <t>0.029 (0.008-0.075)</t>
+  </si>
+  <si>
+    <t>0.072 (0.022-0.175)</t>
+  </si>
+  <si>
+    <t>0.183 (0.032-0.626)</t>
+  </si>
+  <si>
+    <t>0.45 (0.082-1.479)</t>
+  </si>
+  <si>
+    <t>0.04 (0.017-0.081)</t>
+  </si>
+  <si>
+    <t>0.101 (0.043-0.205)</t>
+  </si>
+  <si>
+    <t>0.044 (0.009-0.14)</t>
+  </si>
+  <si>
+    <t>0.108 (0.022-0.335)</t>
+  </si>
+  <si>
+    <t>0.013 (0.006-0.024)</t>
+  </si>
+  <si>
+    <t>0.034 (0.014-0.07)</t>
+  </si>
+  <si>
+    <t>0.04 (0.008-0.122)</t>
+  </si>
+  <si>
+    <t>0.102 (0.02-0.319)</t>
+  </si>
+  <si>
+    <t>0.045 (0.009-0.135)</t>
+  </si>
+  <si>
+    <t>0.113 (0.022-0.352)</t>
+  </si>
+  <si>
+    <t>0.102 (0.037-0.225)</t>
+  </si>
+  <si>
+    <t>0.248 (0.106-0.498)</t>
+  </si>
+  <si>
+    <t>0.033 (0.011-0.087)</t>
+  </si>
+  <si>
+    <t>0.082 (0.028-0.198)</t>
+  </si>
+  <si>
+    <t>0.031 (0.015-0.058)</t>
+  </si>
+  <si>
+    <t>0.075 (0.042-0.122)</t>
+  </si>
+  <si>
+    <t>0.01 (0.004-0.022)</t>
+  </si>
+  <si>
+    <t>0.024 (0.01-0.051)</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,34 +1410,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1466,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3">
         <v>19.8</v>
@@ -1498,10 +1498,10 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -1530,27 +1530,27 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -1562,27 +1562,27 @@
         <v>26.5</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6">
         <v>5.6</v>
@@ -1594,27 +1594,27 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>4.4000000000000004</v>
@@ -1626,27 +1626,27 @@
         <v>26.5</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1658,27 +1658,27 @@
         <v>26.5</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1690,27 +1690,27 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>25.5</v>
@@ -1722,27 +1722,27 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -1754,27 +1754,27 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>16.5</v>
@@ -1786,27 +1786,27 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -1818,27 +1818,27 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>16.5</v>
@@ -1850,27 +1850,27 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -1882,27 +1882,27 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>45</v>
@@ -1914,27 +1914,27 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>20.88</v>
@@ -1946,27 +1946,27 @@
         <v>20.5</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1978,27 +1978,27 @@
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -2010,27 +2010,27 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>9.49</v>
@@ -2042,27 +2042,27 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>25</v>
@@ -2074,27 +2074,27 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -2106,27 +2106,27 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -2138,27 +2138,27 @@
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -2170,27 +2170,27 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2202,27 +2202,27 @@
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -2234,27 +2234,27 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2266,27 +2266,27 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2298,27 +2298,27 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2330,10 +2330,10 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
